--- a/Hardware/BoM/Drehteller_BoM.xlsx
+++ b/Hardware/BoM/Drehteller_BoM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RiouxSVN\3DDrive_OI000218378\Projekte\Drehtisch\STEP-Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RiouxSVN\3DDrive_OI000218378\Projekte\Drehtisch\_GitHub_Files\BoM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906E672D-3AB0-47E1-AFDD-239B3853235D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8790BC94-5FD3-478C-9D89-F70733F8D7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="132" windowWidth="18780" windowHeight="11664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="61">
   <si>
     <t>Drehteller Stückliste</t>
   </si>
@@ -66,15 +66,6 @@
     <t>Schraube, Mutter und Unterlagsscheibe für Mikro Endschalter</t>
   </si>
   <si>
-    <t>Leim</t>
-  </si>
-  <si>
-    <t>Zahnriemen</t>
-  </si>
-  <si>
-    <t>NEMA17</t>
-  </si>
-  <si>
     <t>Top</t>
   </si>
   <si>
@@ -168,14 +159,62 @@
     <t>Pseudo Planeten Getriebe</t>
   </si>
   <si>
-    <t>Schrauben für die Wände</t>
+    <t>Box_Bottom</t>
+  </si>
+  <si>
+    <t>Box_Top</t>
+  </si>
+  <si>
+    <t>Schrauben zur befestigung des Deckels</t>
+  </si>
+  <si>
+    <t>NEMA17 Stepper Motor h: 40mm</t>
+  </si>
+  <si>
+    <t>Schrauben zur Besestigung der Gearbox am Stepper</t>
+  </si>
+  <si>
+    <t>Carrier_Plate</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>Gear_Planet_0.5</t>
+  </si>
+  <si>
+    <t>Gear_Stepper_0.5</t>
+  </si>
+  <si>
+    <t>Fixes (ja die braucht es :-))</t>
+  </si>
+  <si>
+    <t>Schrauben zur Besestigung  von dem NEMA17 an der Baugruppe Bottom_Middle</t>
+  </si>
+  <si>
+    <t>Schrauben zur Besestigung an die Baugruppe Bottom</t>
+  </si>
+  <si>
+    <t>Diverser</t>
+  </si>
+  <si>
+    <t>Leim  nach Wahl</t>
+  </si>
+  <si>
+    <t>FIX_1</t>
+  </si>
+  <si>
+    <t>FIX_2</t>
+  </si>
+  <si>
+    <t>HTD 3M Zahnriemen 6mm x 351mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +233,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,13 +265,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -506,36 +553,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="59.5546875" customWidth="1"/>
+    <col min="3" max="3" width="69.21875" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2"/>
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -546,7 +593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -559,11 +606,8 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -576,11 +620,8 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -593,11 +634,8 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -610,11 +648,8 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -628,7 +663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -642,7 +677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -656,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -664,51 +699,51 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1">
-        <v>6</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -716,13 +751,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -730,13 +765,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -744,57 +779,57 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1">
-        <v>11</v>
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -802,13 +837,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1">
         <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -816,57 +851,57 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1">
         <v>176</v>
       </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -874,13 +909,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -888,13 +923,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -902,71 +937,71 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1">
-        <v>6</v>
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" s="1">
         <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -974,254 +1009,458 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="1">
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>1</v>
-      </c>
-      <c r="B46" s="1">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" t="s">
-        <v>5</v>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>2</v>
-      </c>
-      <c r="B47" s="1">
-        <v>12</v>
+      <c r="A47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B48" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B49" s="1">
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>38</v>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>4</v>
+      </c>
+      <c r="B51" s="1">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>3</v>
+      <c r="A52" s="1">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1">
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>1</v>
-      </c>
-      <c r="B53" s="1">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>2</v>
-      </c>
-      <c r="B54" s="1">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" t="s">
-        <v>5</v>
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>3</v>
-      </c>
-      <c r="B55" s="1">
-        <v>1</v>
+      <c r="A55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B57" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>3</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>4</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>3</v>
+      <c r="A60" s="1">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1">
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>1</v>
-      </c>
-      <c r="B61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>2</v>
-      </c>
-      <c r="B62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>3</v>
-      </c>
-      <c r="B63" s="1">
-        <v>4</v>
-      </c>
-      <c r="D63" t="s">
-        <v>9</v>
+      <c r="A63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B64" s="1">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>44</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>2</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>3</v>
+      </c>
+      <c r="B66" s="1">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>4</v>
+      </c>
+      <c r="B67" s="1">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>4</v>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>3</v>
+      </c>
+      <c r="B73" s="1">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>4</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>5</v>
+      </c>
+      <c r="B75" s="1">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>6</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>7</v>
+      </c>
+      <c r="B77" s="1">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>1</v>
+      </c>
+      <c r="B80" s="1">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>2</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hardware/BoM/Drehteller_BoM.xlsx
+++ b/Hardware/BoM/Drehteller_BoM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RiouxSVN\3DDrive_OI000218378\Projekte\Drehtisch\_GitHub_Files\BoM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8790BC94-5FD3-478C-9D89-F70733F8D7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4A72BE-9EC5-428E-A320-BDE26B39DF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="132" windowWidth="18780" windowHeight="11664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1560" windowWidth="18780" windowHeight="11664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
   <si>
     <t>Drehteller Stückliste</t>
   </si>
@@ -105,21 +105,6 @@
     <t>Bottom_Top</t>
   </si>
   <si>
-    <t>Top_Scale</t>
-  </si>
-  <si>
-    <t>Top_Ring_Big_Inside</t>
-  </si>
-  <si>
-    <t>Top_Ring_Smal_Inside</t>
-  </si>
-  <si>
-    <t>Top_Ring_Big_Outer</t>
-  </si>
-  <si>
-    <t>Top_Ring_Small_Inside</t>
-  </si>
-  <si>
     <t>Wall_Inside</t>
   </si>
   <si>
@@ -208,6 +193,27 @@
   </si>
   <si>
     <t>HTD 3M Zahnriemen 6mm x 351mm</t>
+  </si>
+  <si>
+    <t>Top_Scale_V2</t>
+  </si>
+  <si>
+    <t>Top_Ring_Big_Inside_V2</t>
+  </si>
+  <si>
+    <t>Top_Ring_Smal_Inside_V2</t>
+  </si>
+  <si>
+    <t>Top_Ring_Big_Outer_V2</t>
+  </si>
+  <si>
+    <t>Top_Ring_Small_Inside_V2</t>
+  </si>
+  <si>
+    <t>Wall_Inside_V2</t>
+  </si>
+  <si>
+    <t>Wall_Outside_V2</t>
   </si>
 </sst>
 </file>
@@ -272,7 +278,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -556,7 +562,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -901,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -915,7 +921,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -929,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -943,7 +949,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -957,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -965,7 +971,7 @@
     </row>
     <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -987,7 +993,7 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -1001,7 +1007,7 @@
         <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1015,7 +1021,7 @@
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -1029,7 +1035,7 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1043,7 +1049,7 @@
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1051,7 +1057,7 @@
     </row>
     <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1073,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -1087,7 +1093,7 @@
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -1101,7 +1107,7 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -1115,7 +1121,7 @@
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -1129,7 +1135,7 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -1137,7 +1143,7 @@
     </row>
     <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1159,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -1173,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -1187,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -1201,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -1215,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -1223,7 +1229,7 @@
     </row>
     <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1245,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -1259,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -1273,7 +1279,7 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
@@ -1287,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
@@ -1295,7 +1301,7 @@
     </row>
     <row r="69" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1317,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1331,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
@@ -1345,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -1359,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -1373,7 +1379,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -1387,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
@@ -1401,7 +1407,7 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
@@ -1409,7 +1415,7 @@
     </row>
     <row r="79" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1420,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
@@ -1434,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -1442,7 +1448,7 @@
     </row>
     <row r="83" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1453,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
